--- a/classfiers/chatty/welm/smote/chatty_welm_lin_smote_results.xlsx
+++ b/classfiers/chatty/welm/smote/chatty_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9855421686746988</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9903381642512077</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9855769230769231</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9911046079524339</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9934640522875817</v>
+        <v>0.9903614457831326</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9902439024390244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9932885906040269</v>
+        <v>0.9902439024390244</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9996515679442509</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9927710843373494</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9972070939812876</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9912854030501089</v>
+        <v>0.9759036144578314</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.964824120603015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9915254237288135</v>
+        <v>0.9746192893401016</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996011396011395</v>
+        <v>0.996394007072399</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9978165938864629</v>
+        <v>0.9903381642512077</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9977728285077951</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9996227126957179</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9965132098448308</v>
+        <v>0.9869832955008441</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.987326851493737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9965173685681272</v>
+        <v>0.9868298776078012</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999202279202279</v>
+        <v>0.9967959979292178</v>
       </c>
     </row>
   </sheetData>
